--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0-nb</t>
   </si>
@@ -125,7 +125,7 @@
     <t>top</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_1</t>
+    <t>A-0</t>
   </si>
   <si>
     <t>サンプルページ1</t>
@@ -134,7 +134,7 @@
     <t>/sample_pages/</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_2</t>
+    <t>ページIDを明示するテスト。</t>
   </si>
   <si>
     <t>FESSスタイルガイド</t>
@@ -143,43 +143,28 @@
     <t>/sample_pages/fess/</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_3</t>
-  </si>
-  <si>
     <t>ユニットモジュール</t>
   </si>
   <si>
     <t>/sample_pages/fess/units/</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_4</t>
-  </si>
-  <si>
     <t>パーツモジュール</t>
   </si>
   <si>
     <t>/sample_pages/fess/parts/</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_5</t>
-  </si>
-  <si>
     <t>スタティックモジュール</t>
   </si>
   <si>
     <t>/sample_pages/fess/statics/</t>
   </si>
   <si>
-    <t>sitemapExcel_auto_id_6</t>
-  </si>
-  <si>
     <t>ボックスモジュール</t>
   </si>
   <si>
     <t>/sample_pages/fess/boxes/</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_7</t>
   </si>
   <si>
     <t>ページタイトル
@@ -198,88 +183,136 @@
     <t>/sample_pages/page1/1.html</t>
   </si>
   <si>
+    <t>PHPコード埋め込み</t>
+  </si>
+  <si>
+    <t>/sample_pages/page1/2.html</t>
+  </si>
+  <si>
+    <t>Markdown記法</t>
+  </si>
+  <si>
+    <t>/sample_pages/page1/3.html</t>
+  </si>
+  <si>
+    <t>2段階上に戻ってみるための深い階層</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_1</t>
+  </si>
+  <si>
+    <t>サンプルページ2へのエイリアス</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/page2/</t>
+  </si>
+  <si>
+    <t>エイリアスにページIDを自動付与するテスト。</t>
+  </si>
+  <si>
+    <t>サンプルページ2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page2/</t>
+  </si>
+  <si>
+    <t>サンプル2-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page2/1.html</t>
+  </si>
+  <si>
+    <t>サンプル2-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page2/2.html</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_2</t>
+  </si>
+  <si>
+    <t>サンプルページ3</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/page3/1.html</t>
+  </si>
+  <si>
+    <t>サンプル3-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page3/1.html</t>
+  </si>
+  <si>
+    <t>サンプル3-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page3/2.html</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_3</t>
+  </si>
+  <si>
+    <t>サンプルページ4</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/page4/</t>
+  </si>
+  <si>
+    <t>扉ページをなくする構成のテスト。</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_4</t>
+  </si>
+  <si>
+    <t>サンプルページ4-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page4/</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_5</t>
+  </si>
+  <si>
+    <t>サンプルページ5</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/page5/</t>
+  </si>
+  <si>
+    <t>扉ページをなくする構成の深いテスト。</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_6</t>
+  </si>
+  <si>
+    <t>サンプルページ5-1</t>
+  </si>
+  <si>
+    <t>sitemapExcel_auto_id_7</t>
+  </si>
+  <si>
+    <t>サンプルページ5-1-1</t>
+  </si>
+  <si>
     <t>sitemapExcel_auto_id_8</t>
   </si>
   <si>
-    <t>PHPコード埋め込み</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/2.html</t>
+    <t>サンプルページ5-1-1-1</t>
   </si>
   <si>
     <t>sitemapExcel_auto_id_9</t>
   </si>
   <si>
-    <t>Markdown記法</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/3.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_10</t>
-  </si>
-  <si>
-    <t>サンプルページ2へのエイリアス</t>
-  </si>
-  <si>
-    <t>alias:/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_11</t>
-  </si>
-  <si>
-    <t>サンプルページ2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_12</t>
-  </si>
-  <si>
-    <t>サンプル2-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/1.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_13</t>
-  </si>
-  <si>
-    <t>サンプル2-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/2.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_14</t>
-  </si>
-  <si>
-    <t>サンプルページ3</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_15</t>
-  </si>
-  <si>
-    <t>サンプル3-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/1.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_16</t>
-  </si>
-  <si>
-    <t>サンプル3-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/2.html</t>
-  </si>
-  <si>
-    <t>sitemapExcel_auto_id_17</t>
+    <t>サンプルページ5-1-1-1-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page5/</t>
+  </si>
+  <si>
+    <t>サンプルページ5-1-1-1-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page5/5-1-1-1-2.html</t>
   </si>
   <si>
     <t>ヘルプ</t>
@@ -773,7 +806,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -790,22 +823,24 @@
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
     <col min="5" max="5" width="3" customWidth="true" style="0"/>
     <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3" customWidth="true" style="0"/>
+    <col min="8" max="8" width="3" customWidth="true" style="0"/>
+    <col min="9" max="9" width="20" customWidth="true" style="0"/>
     <col min="10" max="10" width="2" customWidth="true" style="0"/>
     <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="12" max="12" width="2" customWidth="true" style="0"/>
+    <col min="13" max="13" width="2" customWidth="true" style="0"/>
+    <col min="14" max="14" width="40" customWidth="true" style="0"/>
+    <col min="15" max="15" width="20" customWidth="true" style="0"/>
     <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" customWidth="true" style="0"/>
+    <col min="20" max="20" width="30" customWidth="true" style="0"/>
+    <col min="19" max="19" width="30" customWidth="true" style="0"/>
+    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="21" max="21" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,18 +863,20 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,47 +888,49 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -903,47 +942,49 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -953,27 +994,29 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="R9" s="4"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -985,30 +1028,32 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4" t="s">
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
@@ -1017,148 +1062,148 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
+      <c r="N12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
+      <c r="N13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>1</v>
+      <c r="N14" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
+      <c r="N15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
@@ -1167,365 +1212,659 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>1</v>
+      <c r="N17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>1</v>
+      <c r="N18" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>1</v>
+      <c r="N19" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4">
-        <v>1</v>
+      <c r="N20" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>1</v>
+      <c r="N21" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>1</v>
+      <c r="N22" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4">
-        <v>1</v>
+      <c r="N23" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="4">
-        <v>1</v>
-      </c>
-      <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <v>1</v>
+      <c r="N24" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <v>1</v>
+      <c r="N25" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row r="29" spans="1:20" customHeight="1" ht="5">
-      <c r="A29" s="10" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="37" spans="1:22" customHeight="1" ht="5">
+      <c r="A37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -11,302 +11,316 @@
     <sheet name="sitemap" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0-nb</t>
-  </si>
-  <si>
-    <t>「Pickles 2」 テスト用サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2000-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ページID</t>
-  </si>
-  <si>
-    <t>ページタイトル</t>
-  </si>
-  <si>
-    <t>ページタイトル(H1表示用)</t>
-  </si>
-  <si>
-    <t>ページタイトル(リンク表示用)</t>
-  </si>
-  <si>
-    <t>ページタイトル(パン屑表示用)</t>
-  </si>
-  <si>
-    <t>ページタイトル(タイトルタグ用)</t>
-  </si>
-  <si>
-    <t>ページのパス</t>
-  </si>
-  <si>
-    <t>テスト用カスタムカラム2</t>
-  </si>
-  <si>
-    <t>コンテンツファイルの格納先</t>
-  </si>
-  <si>
-    <t>一覧表示フラグ</t>
-  </si>
-  <si>
-    <t>レイアウト</t>
-  </si>
-  <si>
-    <t>テスト用カスタムカラム1</t>
-  </si>
-  <si>
-    <t>表示順</t>
-  </si>
-  <si>
-    <t>metaキーワード</t>
-  </si>
-  <si>
-    <t>metaディスクリプション</t>
-  </si>
-  <si>
-    <t>カテゴリトップフラグ</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title_h1</t>
-  </si>
-  <si>
-    <t>title_label</t>
-  </si>
-  <si>
-    <t>title_breadcrumb</t>
-  </si>
-  <si>
-    <t>title_full</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>test_custom_column_xlsx_2</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>list_flg</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>test_custom_column_xlsx_1</t>
-  </si>
-  <si>
-    <t>orderby</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category_top_flg</t>
-  </si>
-  <si>
-    <t>**delete_flg</t>
-  </si>
-  <si>
-    <t>ホーム</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>A-0</t>
-  </si>
-  <si>
-    <t>サンプルページ1</t>
-  </si>
-  <si>
-    <t>/sample_pages/</t>
-  </si>
-  <si>
-    <t>ページIDを明示するテスト。</t>
-  </si>
-  <si>
-    <t>FESSスタイルガイド</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/</t>
-  </si>
-  <si>
-    <t>ユニットモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/units/</t>
-  </si>
-  <si>
-    <t>パーツモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/parts/</t>
-  </si>
-  <si>
-    <t>スタティックモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/statics/</t>
-  </si>
-  <si>
-    <t>ボックスモジュール</t>
-  </si>
-  <si>
-    <t>/sample_pages/fess/boxes/</t>
-  </si>
-  <si>
-    <t>ページタイトル
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+  <si>
+    <t xml:space="preserve">row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.0-nb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Pickles 2」 テスト用サイトマップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exported: 2000-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(H1表示用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(リンク表示用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(パン屑表示用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(タイトルタグ用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページのパス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト用カスタムカラム2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンテンツファイルの格納先</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一覧表示フラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レイアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト用カスタムカラム1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表示順</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaキーワード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaディスクリプション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カテゴリトップフラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除フラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_breadcrumb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_custom_column_xlsx_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_custom_column_xlsx_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_top_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**delete_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページIDを明示するテスト。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FESSスタイルガイド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/fess/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユニットモジュール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/fess/units/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パーツモジュール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/fess/parts/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スタティックモジュール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/fess/statics/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボックスモジュール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/fess/boxes/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル
 (H1見出しのラベル)</t>
   </si>
   <si>
-    <t>ページタイトル(リンクのラベル)</t>
-  </si>
-  <si>
-    <t>ページタイトル(パンくずのラベル)</t>
-  </si>
-  <si>
-    <t>ページタイトル(タイトルタグにそのまま表示)</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/1.html</t>
-  </si>
-  <si>
-    <t>PHPコード埋め込み</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/2.html</t>
-  </si>
-  <si>
-    <t>Markdown記法</t>
-  </si>
-  <si>
-    <t>/sample_pages/page1/3.html</t>
-  </si>
-  <si>
-    <t>2段階上に戻ってみるための深い階層</t>
-  </si>
-  <si>
-    <t>サンプルページ2へのエイリアス</t>
-  </si>
-  <si>
-    <t>alias:/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>エイリアスにページIDを自動付与するテスト。</t>
-  </si>
-  <si>
-    <t>サンプルページ2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/</t>
-  </si>
-  <si>
-    <t>サンプル2-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/1.html</t>
-  </si>
-  <si>
-    <t>サンプル2-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page2/2.html</t>
-  </si>
-  <si>
-    <t>サンプルページ3</t>
-  </si>
-  <si>
-    <t>alias:/sample_pages/page3/1.html</t>
-  </si>
-  <si>
-    <t>サンプル3-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/1.html</t>
-  </si>
-  <si>
-    <t>サンプル3-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page3/2.html</t>
-  </si>
-  <si>
-    <t>サンプルページ4</t>
-  </si>
-  <si>
-    <t>サンプルページ4-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page4/</t>
-  </si>
-  <si>
-    <t>扉ページをなくする構成のテスト。</t>
-  </si>
-  <si>
-    <t>サンプルページ5</t>
-  </si>
-  <si>
-    <t>サンプルページ5-1</t>
-  </si>
-  <si>
-    <t>サンプルページ5-1-1</t>
-  </si>
-  <si>
-    <t>サンプルページ5-1-1-1</t>
-  </si>
-  <si>
-    <t>サンプルページ5-1-1-1-1</t>
-  </si>
-  <si>
-    <t>/sample_pages/page5/</t>
-  </si>
-  <si>
-    <t>扉ページをなくする構成の深いテスト。</t>
-  </si>
-  <si>
-    <t>サンプルページ5-1-1-1-2</t>
-  </si>
-  <si>
-    <t>/sample_pages/page5/5-1-1-1-2.html</t>
-  </si>
-  <si>
-    <t>ヘルプ</t>
-  </si>
-  <si>
-    <t>/sample_pages/help/</t>
-  </si>
-  <si>
-    <t>EndOfData</t>
+    <t xml:space="preserve">ページタイトル(リンクのラベル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(パンくずのラベル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ページタイトル(タイトルタグにそのまま表示)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page1/1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHPコード埋め込み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page1/2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markdown記法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page1/3.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2段階上に戻ってみるための深い階層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ2へのエイリアス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias:/sample_pages/page2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エイリアスにページIDを自動付与するテスト。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプル2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page2/1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプル2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page2/2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias:/sample_pages/page3/1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプル3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page3/1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプル3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page3/2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扉ページをなくする構成のテスト。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5-1-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5-1-1-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扉ページをなくする構成の深いテスト。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルページ5-1-1-1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/page5/5-1-1-1-2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヘルプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sample_pages/help/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickles 2 への外部リンク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://pickles2.pxt.jp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部のURLを処理するテスト。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndOfData</t>
   </si>
 </sst>
 </file>
@@ -314,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
@@ -359,6 +373,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="メイリオ"/>
       <family val="0"/>
       <charset val="1"/>
@@ -514,7 +535,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -613,6 +634,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -712,28 +737,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.91037735849057"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="3.34433962264151"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.2877358490566"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="1" width="2.2311320754717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.5707547169811"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="22.2877358490566"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.34433962264151"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.0235849056604"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.2311320754717"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="3.34433962264151"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="33.4292452830189"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="3.34433962264151"/>
-    <col collapsed="false" hidden="false" max="258" min="23" style="1" width="9.70754716981132"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.70754716981132"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.61702127659575"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="3.57446808510638"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.0808510638298"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="1" width="2.37872340425532"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="48.1659574468085"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="24.0808510638298"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.57446808510638"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.8085106382979"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.0851063829787"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="3.57446808510638"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="36.1617021276596"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="3.57446808510638"/>
+    <col collapsed="false" hidden="false" max="258" min="23" style="1" width="10.4127659574468"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="10.4127659574468"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1788,87 +1813,127 @@
       <c r="W29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="27"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="28"/>
+    </row>
+    <row r="32" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M30" r:id="rId1" display="http://pickles2.pxt.jp/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -698,18 +698,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.93617021276596"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="3.57446808510638"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2723404255319"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="2.46382978723404"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="50.468085106383"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2723404255319"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.57446808510638"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2042553191489"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.57446808510638"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="37.8297872340426"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.57446808510638"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.4851063829787"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7276595744681"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="3.81276595744681"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2595744680851"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="2.62127659574468"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="54.5148936170213"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.2595744680851"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.81276595744681"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.0851063829787"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.81276595744681"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="40.9276595744681"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.81276595744681"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.2808510638298"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -741,7 +741,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>

--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/mydoc_TomK/Dropbox/localhosts/pickles2projects/pickles2/px2-sitemapexcel/tests/testData/standard/px-files/test_excel_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EC8D6-C50D-D74A-97D9-8DBF065D9BD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -369,8 +375,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ h:mm"/>
     <numFmt numFmtId="178" formatCode="ggge&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
@@ -378,8 +385,11 @@
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="181" formatCode="dd\-mmm"/>
     <numFmt numFmtId="182" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="183" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -390,44 +400,51 @@
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="11"/>
       <name val="メイリオ"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -579,10 +596,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -611,6 +626,12 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="26" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -715,6 +736,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1039,66 +1068,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13:Z20"/>
+      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="8" width="1.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="13" width="2.125" customWidth="1"/>
-    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="16" max="16" width="3.75" customWidth="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="21" width="3.625" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="23" width="3.25" customWidth="1"/>
-    <col min="26" max="26" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" customWidth="1"/>
+    <col min="19" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="10" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="37">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="38">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1108,1260 +1137,1260 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z8" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="11">
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" s="9">
         <v>36689</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10" t="s">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="7">
-        <v>1</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="13">
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="11">
         <v>37142.076967592599</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z11" s="14">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="12">
         <v>37143.076967534696</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="7" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z12" s="15">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" s="13">
         <v>37144.076967534696</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="16">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="14">
         <v>37145.076967534696</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z14" s="17">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="15">
         <v>37146.076967534696</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="7" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z15" s="18">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="16">
         <v>37147.076967534696</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="19" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z16" s="24">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" s="22">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="7" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" s="25" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="7" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10" t="s">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="26" t="s">
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="7" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z19" s="13">
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" s="11">
         <v>37151.076967534696</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="7" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="7">
-        <v>1</v>
-      </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="13">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="11">
         <v>37152.076967534696</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="7" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" s="13">
-        <v>37153.076967534696</v>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>12345678.1234567</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="7" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>37154.076967534696</v>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>-45623</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="7" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>37156.076967534696</v>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z24" s="13">
-        <v>37157.076967534696</v>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>2.199977123</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="7" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="U25" s="7">
-        <v>1</v>
-      </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>37159.076967534696</v>
+      <c r="U25" s="5">
+        <v>1</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" s="25">
+        <v>1.23456123412345E+20</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="7" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U26" s="7">
-        <v>1</v>
-      </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>37164.076967534696</v>
+      <c r="U26" s="5">
+        <v>1</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="7"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="7" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>37165.076967534696</v>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>-10000</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="7"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="7" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z28" s="13">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z28" s="11">
         <v>37166.076967534696</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="7"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="23" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10" t="s">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z29" s="13">
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" s="11">
         <v>37167.076967534696</v>
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="7"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="23" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10" t="s">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z30" s="13">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" s="11">
         <v>37168.076967534696</v>
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="7"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="23" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z31" s="13">
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" s="11">
         <v>37169.076967534696</v>
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="7"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="23" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="13">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" s="11">
         <v>37170.076967534696</v>
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="7"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="23" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10" t="s">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z33" s="13">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="11">
         <v>37171.076967534696</v>
       </c>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="23" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10" t="s">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z34" s="13">
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z34" s="11">
         <v>37172.076967534696</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="5" customHeight="1">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/mydoc_TomK/Dropbox/localhosts/pickles2projects/pickles2/px2-sitemapexcel/tests/testData/standard/px-files/test_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EC8D6-C50D-D74A-97D9-8DBF065D9BD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0AEAA-8E4E-8543-85EB-805023636510}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.5-alpha.1%2Bnb</t>
   </si>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>/sample_pages/fess/units/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    a string    </t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -389,7 +393,7 @@
     <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -442,6 +446,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
@@ -596,7 +607,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -629,9 +640,10 @@
     <xf numFmtId="183" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="26" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1072,10 +1084,10 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="20"/>
@@ -1140,16 +1152,16 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1206,16 +1218,16 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1818,7 @@
       <c r="Y21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="28">
         <v>12345678.1234567</v>
       </c>
     </row>
@@ -2106,8 +2118,8 @@
       <c r="Y28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z28" s="11">
-        <v>37166.076967534696</v>
+      <c r="Z28" s="31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:26">
